--- a/natmiOut/YoungD7/LR-pairs_lrc2p/F2-F2rl3.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/F2-F2rl3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +92,6 @@
   </si>
   <si>
     <t>F2rl3</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -531,49 +534,49 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.22690099197231</v>
+        <v>0.435996</v>
       </c>
       <c r="H2">
-        <v>1.22690099197231</v>
+        <v>1.307988</v>
       </c>
       <c r="I2">
-        <v>0.5502953857104526</v>
+        <v>0.1465413898077064</v>
       </c>
       <c r="J2">
-        <v>0.5502953857104526</v>
+        <v>0.1465413898077064</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.918140743931172</v>
+        <v>4.059106333333333</v>
       </c>
       <c r="N2">
-        <v>0.918140743931172</v>
+        <v>12.177319</v>
       </c>
       <c r="O2">
-        <v>0.482690688091276</v>
+        <v>0.648594365531327</v>
       </c>
       <c r="P2">
-        <v>0.482690688091276</v>
+        <v>0.6485943655313269</v>
       </c>
       <c r="Q2">
-        <v>1.12646778949935</v>
+        <v>1.769754124908</v>
       </c>
       <c r="R2">
-        <v>1.12646778949935</v>
+        <v>15.927787124172</v>
       </c>
       <c r="S2">
-        <v>0.2656224583820325</v>
+        <v>0.09504591974640818</v>
       </c>
       <c r="T2">
-        <v>0.2656224583820325</v>
+        <v>0.09504591974640816</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.22690099197231</v>
+        <v>0.435996</v>
       </c>
       <c r="H3">
-        <v>1.22690099197231</v>
+        <v>1.307988</v>
       </c>
       <c r="I3">
-        <v>0.5502953857104526</v>
+        <v>0.1465413898077064</v>
       </c>
       <c r="J3">
-        <v>0.5502953857104526</v>
+        <v>0.1465413898077064</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.2633197940083</v>
+        <v>0.9638993333333333</v>
       </c>
       <c r="N3">
-        <v>0.2633197940083</v>
+        <v>2.891698</v>
       </c>
       <c r="O3">
-        <v>0.1384341272272822</v>
+        <v>0.1540190438977748</v>
       </c>
       <c r="P3">
-        <v>0.1384341272272822</v>
+        <v>0.1540190438977748</v>
       </c>
       <c r="Q3">
-        <v>0.3230673164747276</v>
+        <v>0.420256253736</v>
       </c>
       <c r="R3">
-        <v>0.3230673164747276</v>
+        <v>3.782306283624</v>
       </c>
       <c r="S3">
-        <v>0.07617966143802712</v>
+        <v>0.02257016474963406</v>
       </c>
       <c r="T3">
-        <v>0.07617966143802712</v>
+        <v>0.02257016474963405</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.22690099197231</v>
+        <v>0.435996</v>
       </c>
       <c r="H4">
-        <v>1.22690099197231</v>
+        <v>1.307988</v>
       </c>
       <c r="I4">
-        <v>0.5502953857104526</v>
+        <v>0.1465413898077064</v>
       </c>
       <c r="J4">
-        <v>0.5502953857104526</v>
+        <v>0.1465413898077064</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.720670094747507</v>
+        <v>0.4213850000000001</v>
       </c>
       <c r="N4">
-        <v>0.720670094747507</v>
+        <v>1.264155</v>
       </c>
       <c r="O4">
-        <v>0.3788751846814419</v>
+        <v>0.06733204658252402</v>
       </c>
       <c r="P4">
-        <v>0.3788751846814419</v>
+        <v>0.06733204658252399</v>
       </c>
       <c r="Q4">
-        <v>0.8841908541304949</v>
+        <v>0.18372217446</v>
       </c>
       <c r="R4">
-        <v>0.8841908541304949</v>
+        <v>1.65349957014</v>
       </c>
       <c r="S4">
-        <v>0.208493265890393</v>
+        <v>0.009866931684800295</v>
       </c>
       <c r="T4">
-        <v>0.208493265890393</v>
+        <v>0.009866931684800292</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.00263068107331</v>
+        <v>0.435996</v>
       </c>
       <c r="H5">
-        <v>1.00263068107331</v>
+        <v>1.307988</v>
       </c>
       <c r="I5">
-        <v>0.4497046142895476</v>
+        <v>0.1465413898077064</v>
       </c>
       <c r="J5">
-        <v>0.4497046142895476</v>
+        <v>0.1465413898077064</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.918140743931172</v>
+        <v>0.8139219999999999</v>
       </c>
       <c r="N5">
-        <v>0.918140743931172</v>
+        <v>2.441766</v>
       </c>
       <c r="O5">
-        <v>0.482690688091276</v>
+        <v>0.1300545439883743</v>
       </c>
       <c r="P5">
-        <v>0.482690688091276</v>
+        <v>0.1300545439883743</v>
       </c>
       <c r="Q5">
-        <v>0.9205560794088665</v>
+        <v>0.3548667363119999</v>
       </c>
       <c r="R5">
-        <v>0.9205560794088665</v>
+        <v>3.193800626808</v>
       </c>
       <c r="S5">
-        <v>0.2170682297092436</v>
+        <v>0.01905837362686385</v>
       </c>
       <c r="T5">
-        <v>0.2170682297092436</v>
+        <v>0.01905837362686385</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.00263068107331</v>
+        <v>1.288726</v>
       </c>
       <c r="H6">
-        <v>1.00263068107331</v>
+        <v>3.866178</v>
       </c>
       <c r="I6">
-        <v>0.4497046142895476</v>
+        <v>0.4331500727560028</v>
       </c>
       <c r="J6">
-        <v>0.4497046142895476</v>
+        <v>0.4331500727560028</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.2633197940083</v>
+        <v>4.059106333333333</v>
       </c>
       <c r="N6">
-        <v>0.2633197940083</v>
+        <v>12.177319</v>
       </c>
       <c r="O6">
-        <v>0.1384341272272822</v>
+        <v>0.648594365531327</v>
       </c>
       <c r="P6">
-        <v>0.1384341272272822</v>
+        <v>0.6485943655313269</v>
       </c>
       <c r="Q6">
-        <v>0.2640125044066255</v>
+        <v>5.231075868531333</v>
       </c>
       <c r="R6">
-        <v>0.2640125044066255</v>
+        <v>47.079682816782</v>
       </c>
       <c r="S6">
-        <v>0.0622544657892551</v>
+        <v>0.2809386966190277</v>
       </c>
       <c r="T6">
-        <v>0.0622544657892551</v>
+        <v>0.2809386966190277</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,681 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.00263068107331</v>
+        <v>1.288726</v>
       </c>
       <c r="H7">
-        <v>1.00263068107331</v>
+        <v>3.866178</v>
       </c>
       <c r="I7">
-        <v>0.4497046142895476</v>
+        <v>0.4331500727560028</v>
       </c>
       <c r="J7">
-        <v>0.4497046142895476</v>
+        <v>0.4331500727560028</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.720670094747507</v>
+        <v>0.9638993333333333</v>
       </c>
       <c r="N7">
-        <v>0.720670094747507</v>
+        <v>2.891698</v>
       </c>
       <c r="O7">
-        <v>0.3788751846814419</v>
+        <v>0.1540190438977748</v>
       </c>
       <c r="P7">
-        <v>0.3788751846814419</v>
+        <v>0.1540190438977748</v>
       </c>
       <c r="Q7">
-        <v>0.7225659479258598</v>
+        <v>1.242202132249333</v>
       </c>
       <c r="R7">
-        <v>0.7225659479258598</v>
+        <v>11.179819190244</v>
       </c>
       <c r="S7">
-        <v>0.1703819187910489</v>
+        <v>0.06671336007013114</v>
       </c>
       <c r="T7">
-        <v>0.1703819187910489</v>
+        <v>0.06671336007013112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.288726</v>
+      </c>
+      <c r="H8">
+        <v>3.866178</v>
+      </c>
+      <c r="I8">
+        <v>0.4331500727560028</v>
+      </c>
+      <c r="J8">
+        <v>0.4331500727560028</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.4213850000000001</v>
+      </c>
+      <c r="N8">
+        <v>1.264155</v>
+      </c>
+      <c r="O8">
+        <v>0.06733204658252402</v>
+      </c>
+      <c r="P8">
+        <v>0.06733204658252399</v>
+      </c>
+      <c r="Q8">
+        <v>0.54304980551</v>
+      </c>
+      <c r="R8">
+        <v>4.88744824959</v>
+      </c>
+      <c r="S8">
+        <v>0.02916488087603085</v>
+      </c>
+      <c r="T8">
+        <v>0.02916488087603084</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.288726</v>
+      </c>
+      <c r="H9">
+        <v>3.866178</v>
+      </c>
+      <c r="I9">
+        <v>0.4331500727560028</v>
+      </c>
+      <c r="J9">
+        <v>0.4331500727560028</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.8139219999999999</v>
+      </c>
+      <c r="N9">
+        <v>2.441766</v>
+      </c>
+      <c r="O9">
+        <v>0.1300545439883743</v>
+      </c>
+      <c r="P9">
+        <v>0.1300545439883743</v>
+      </c>
+      <c r="Q9">
+        <v>1.048922443372</v>
+      </c>
+      <c r="R9">
+        <v>9.440301990347999</v>
+      </c>
+      <c r="S9">
+        <v>0.05633313519081309</v>
+      </c>
+      <c r="T9">
+        <v>0.05633313519081307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.202417</v>
+      </c>
+      <c r="H10">
+        <v>0.607251</v>
+      </c>
+      <c r="I10">
+        <v>0.06803380879803141</v>
+      </c>
+      <c r="J10">
+        <v>0.06803380879803141</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>4.059106333333333</v>
+      </c>
+      <c r="N10">
+        <v>12.177319</v>
+      </c>
+      <c r="O10">
+        <v>0.648594365531327</v>
+      </c>
+      <c r="P10">
+        <v>0.6485943655313269</v>
+      </c>
+      <c r="Q10">
+        <v>0.8216321266743333</v>
+      </c>
+      <c r="R10">
+        <v>7.394689140069</v>
+      </c>
+      <c r="S10">
+        <v>0.04412634505203879</v>
+      </c>
+      <c r="T10">
+        <v>0.04412634505203879</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.202417</v>
+      </c>
+      <c r="H11">
+        <v>0.607251</v>
+      </c>
+      <c r="I11">
+        <v>0.06803380879803141</v>
+      </c>
+      <c r="J11">
+        <v>0.06803380879803141</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.9638993333333333</v>
+      </c>
+      <c r="N11">
+        <v>2.891698</v>
+      </c>
+      <c r="O11">
+        <v>0.1540190438977748</v>
+      </c>
+      <c r="P11">
+        <v>0.1540190438977748</v>
+      </c>
+      <c r="Q11">
+        <v>0.1951096113553333</v>
+      </c>
+      <c r="R11">
+        <v>1.755986502198</v>
+      </c>
+      <c r="S11">
+        <v>0.01047850218379682</v>
+      </c>
+      <c r="T11">
+        <v>0.01047850218379681</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.202417</v>
+      </c>
+      <c r="H12">
+        <v>0.607251</v>
+      </c>
+      <c r="I12">
+        <v>0.06803380879803141</v>
+      </c>
+      <c r="J12">
+        <v>0.06803380879803141</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.4213850000000001</v>
+      </c>
+      <c r="N12">
+        <v>1.264155</v>
+      </c>
+      <c r="O12">
+        <v>0.06733204658252402</v>
+      </c>
+      <c r="P12">
+        <v>0.06733204658252399</v>
+      </c>
+      <c r="Q12">
+        <v>0.08529548754500001</v>
+      </c>
+      <c r="R12">
+        <v>0.7676593879050001</v>
+      </c>
+      <c r="S12">
+        <v>0.004580855583175583</v>
+      </c>
+      <c r="T12">
+        <v>0.004580855583175582</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.202417</v>
+      </c>
+      <c r="H13">
+        <v>0.607251</v>
+      </c>
+      <c r="I13">
+        <v>0.06803380879803141</v>
+      </c>
+      <c r="J13">
+        <v>0.06803380879803141</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.8139219999999999</v>
+      </c>
+      <c r="N13">
+        <v>2.441766</v>
+      </c>
+      <c r="O13">
+        <v>0.1300545439883743</v>
+      </c>
+      <c r="P13">
+        <v>0.1300545439883743</v>
+      </c>
+      <c r="Q13">
+        <v>0.164751649474</v>
+      </c>
+      <c r="R13">
+        <v>1.482764845266</v>
+      </c>
+      <c r="S13">
+        <v>0.008848105979020221</v>
+      </c>
+      <c r="T13">
+        <v>0.008848105979020219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.048102333333333</v>
+      </c>
+      <c r="H14">
+        <v>3.144307</v>
+      </c>
+      <c r="I14">
+        <v>0.3522747286382595</v>
+      </c>
+      <c r="J14">
+        <v>0.3522747286382595</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>4.059106333333333</v>
+      </c>
+      <c r="N14">
+        <v>12.177319</v>
+      </c>
+      <c r="O14">
+        <v>0.648594365531327</v>
+      </c>
+      <c r="P14">
+        <v>0.6485943655313269</v>
+      </c>
+      <c r="Q14">
+        <v>4.254358819214778</v>
+      </c>
+      <c r="R14">
+        <v>38.289229372933</v>
+      </c>
+      <c r="S14">
+        <v>0.2284834041138523</v>
+      </c>
+      <c r="T14">
+        <v>0.2284834041138523</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.048102333333333</v>
+      </c>
+      <c r="H15">
+        <v>3.144307</v>
+      </c>
+      <c r="I15">
+        <v>0.3522747286382595</v>
+      </c>
+      <c r="J15">
+        <v>0.3522747286382595</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.9638993333333333</v>
+      </c>
+      <c r="N15">
+        <v>2.891698</v>
+      </c>
+      <c r="O15">
+        <v>0.1540190438977748</v>
+      </c>
+      <c r="P15">
+        <v>0.1540190438977748</v>
+      </c>
+      <c r="Q15">
+        <v>1.010265140365111</v>
+      </c>
+      <c r="R15">
+        <v>9.092386263285999</v>
+      </c>
+      <c r="S15">
+        <v>0.05425701689421279</v>
+      </c>
+      <c r="T15">
+        <v>0.05425701689421279</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.048102333333333</v>
+      </c>
+      <c r="H16">
+        <v>3.144307</v>
+      </c>
+      <c r="I16">
+        <v>0.3522747286382595</v>
+      </c>
+      <c r="J16">
+        <v>0.3522747286382595</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.4213850000000001</v>
+      </c>
+      <c r="N16">
+        <v>1.264155</v>
+      </c>
+      <c r="O16">
+        <v>0.06733204658252402</v>
+      </c>
+      <c r="P16">
+        <v>0.06733204658252399</v>
+      </c>
+      <c r="Q16">
+        <v>0.4416546017316667</v>
+      </c>
+      <c r="R16">
+        <v>3.974891415585001</v>
+      </c>
+      <c r="S16">
+        <v>0.0237193784385173</v>
+      </c>
+      <c r="T16">
+        <v>0.02371937843851729</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.048102333333333</v>
+      </c>
+      <c r="H17">
+        <v>3.144307</v>
+      </c>
+      <c r="I17">
+        <v>0.3522747286382595</v>
+      </c>
+      <c r="J17">
+        <v>0.3522747286382595</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.8139219999999999</v>
+      </c>
+      <c r="N17">
+        <v>2.441766</v>
+      </c>
+      <c r="O17">
+        <v>0.1300545439883743</v>
+      </c>
+      <c r="P17">
+        <v>0.1300545439883743</v>
+      </c>
+      <c r="Q17">
+        <v>0.8530735473513332</v>
+      </c>
+      <c r="R17">
+        <v>7.677661926161999</v>
+      </c>
+      <c r="S17">
+        <v>0.04581492919167714</v>
+      </c>
+      <c r="T17">
+        <v>0.04581492919167713</v>
       </c>
     </row>
   </sheetData>
